--- a/Bang-cham-cong-[5-2020].xlsx
+++ b/Bang-cham-cong-[5-2020].xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_DB457F2C17089B94A26E87537B8BF29B7DA0DEC5" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{6D028D79-E6E0-4582-81BF-AB329EE0CD18}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_DB457F2C17089B94A26E87537B8BF29B7DA0DEC5" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{1FE1129B-1EAB-4946-B2C2-59577C1663A4}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="20085" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34530" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="269">
   <si>
     <t>Mã</t>
   </si>
@@ -1216,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2848,9 +2848,6 @@
       <c r="H11" t="s">
         <v>75</v>
       </c>
-      <c r="I11" t="s">
-        <v>75</v>
-      </c>
       <c r="J11" t="s">
         <v>75</v>
       </c>
@@ -13611,6 +13608,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:AI1"/>
     <mergeCell ref="BH1:BJ1"/>
     <mergeCell ref="BK1:BL1"/>
     <mergeCell ref="BM1:BM2"/>
@@ -13620,11 +13622,6 @@
     <mergeCell ref="AP1:AR1"/>
     <mergeCell ref="AS1:AT1"/>
     <mergeCell ref="AU1:BG1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:AI1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
